--- a/Videos.xlsx
+++ b/Videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED310D-5E76-47F4-8076-617B265FC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37026A-F3F5-44F1-BD06-3FF5D47D9170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -794,8 +794,12 @@
       <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
@@ -805,8 +809,12 @@
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
@@ -816,8 +824,12 @@
       <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
@@ -827,8 +839,12 @@
       <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
@@ -838,7 +854,9 @@
       <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
@@ -849,7 +867,9 @@
       <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
@@ -860,7 +880,9 @@
       <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -869,11 +891,11 @@
       </c>
       <c r="E24" s="9">
         <f>+SUM(E4:E23)/$B$23</f>
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F24" s="9">
         <f>+SUM(F4:F23)/$B$23</f>
-        <v>0.625</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Videos.xlsx
+++ b/Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37026A-F3F5-44F1-BD06-3FF5D47D9170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F8B87-5C20-4BFD-91B7-5DBE706E0A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Videos TSED</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>*Dos videos (teoría + actividad)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,6 +260,9 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,371 +549,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.5546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="10" t="str">
+        <f>+CONCATENATE("TSED_",C4,"_",E4)</f>
+        <v>TSED_1.1_Transporte de sedimentos</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="10" t="str">
+        <f t="shared" ref="F5:F23" si="0">+CONCATENATE("TSED_",C5,"_",E5)</f>
+        <v>TSED_1.2_Morfología de cauces</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_1.3_Potencia de la corriente</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_1.4_Movimiento incipiente</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>0.5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_1.5_Acorazamiento</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_1.6_Caudal sólido en suspensión</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_1.7_Predicción sobre la respuesta general de un río al cambio</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_1.8_Cuantificación del potencial de transporte de sedimentos</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_2.1_Funcionamiento del modelo</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_2.2_Estructura del modelo</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_2.3_Funciones de transporte de sedimentos</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_2.4_Información de campo</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_2.5_Limitaciones</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_3.1_Presentación caso de estudio</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_3.2_Datos del modelo. Archivo de geometría</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_3.3_Datos del modelo. Archivo de caudal</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <v>17</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_3.4_Datos del modelo. Archivo de sedimentos</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_3.5_Creación plan de transporte de sedimentos</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_3.6_Visualización e interpretación de resultados</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="8" t="s">
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TSED_3.7_Calibración</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="9">
-        <f>+SUM(E4:E23)/$B$23</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <f>+SUM(F4:F23)/$B$23</f>
-        <v>0.82499999999999996</v>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9">
+        <f>+SUM(G4:G23)/$B$23</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <f>+SUM(H4:H23)/$B$23</f>
+        <v>0.97499999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D17:D23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F23">
+  <conditionalFormatting sqref="G4:H23">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -914,26 +1077,26 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_ClasificacionRios" xr:uid="{C65BD627-EC04-4D73-8F5D-E401DE5DB9EE}"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia" xr:uid="{6AAC4C38-BB05-4E5A-B3F5-B1ED1C1BE622}"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_MovimientoIncipiente" xr:uid="{B09D3E3A-6551-4F17-BF57-148E9105AA79}"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Acorazamiento" xr:uid="{6015DD00-321C-4143-AAC3-EDE5F4E4D054}"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_CaudalSuspension" xr:uid="{6146E9D4-47E3-43FE-9C67-839DBA23732F}"/>
-    <hyperlink ref="D10" r:id="rId6" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Lane" xr:uid="{8E18C0D7-A29E-4249-BC20-19C13A016528}"/>
-    <hyperlink ref="D11" r:id="rId7" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_PotencialTransporteSedimentos" xr:uid="{C18A211D-384B-4643-992E-F0B88BB8C73B}"/>
-    <hyperlink ref="D12" r:id="rId8" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Funcionamiento" xr:uid="{77C2131E-CE5E-4C6F-B284-CE06538BED64}"/>
-    <hyperlink ref="D13" r:id="rId9" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Modelo" xr:uid="{E932ABC8-A5FF-4528-8F88-820742CCDB82}"/>
-    <hyperlink ref="D14" r:id="rId10" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_FuncionesTransporte" xr:uid="{55D5DD23-FDB5-4477-B845-7A215F08E897}"/>
-    <hyperlink ref="D15" r:id="rId11" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_InformacionCampo" xr:uid="{2186B670-80FD-4070-B4DF-226BB6BB2A9B}"/>
-    <hyperlink ref="D16" r:id="rId12" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Limitaciones" xr:uid="{9BEB0596-FB57-44ED-935E-09399F1C8C8F}"/>
-    <hyperlink ref="D17" r:id="rId13" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_CasoEstudio" xr:uid="{FE0AA1B4-F2D1-4D8D-A616-BFBD09D92024}"/>
-    <hyperlink ref="D18" r:id="rId14" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Geometria" xr:uid="{41384F99-1753-46AF-84A3-A8A5E727BF7F}"/>
-    <hyperlink ref="D19" r:id="rId15" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Caudal" xr:uid="{8F26E8C0-B127-492D-9428-2F7441770208}"/>
-    <hyperlink ref="D20" r:id="rId16" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Sedimentos" xr:uid="{41E0CFC8-79C7-4221-814A-08722CD465BD}"/>
-    <hyperlink ref="D21" r:id="rId17" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Plan" xr:uid="{382EFA5D-B6BB-4704-B410-06548CBF305A}"/>
-    <hyperlink ref="D22" r:id="rId18" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Resultados" xr:uid="{FD41B25F-9B7F-4D60-A308-989563587F02}"/>
-    <hyperlink ref="D23" r:id="rId19" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Calibracion" xr:uid="{C3C1A7EE-4731-4EF5-867B-84D29CF98DF2}"/>
-    <hyperlink ref="D4" r:id="rId20" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_TransporteDeSedimentos" xr:uid="{5D22F628-8763-475E-84D4-D7DF334BDF4F}"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_ClasificacionRios" xr:uid="{C65BD627-EC04-4D73-8F5D-E401DE5DB9EE}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia" xr:uid="{6AAC4C38-BB05-4E5A-B3F5-B1ED1C1BE622}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_MovimientoIncipiente" xr:uid="{B09D3E3A-6551-4F17-BF57-148E9105AA79}"/>
+    <hyperlink ref="E8" r:id="rId4" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Acorazamiento" xr:uid="{6015DD00-321C-4143-AAC3-EDE5F4E4D054}"/>
+    <hyperlink ref="E9" r:id="rId5" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_CaudalSuspension" xr:uid="{6146E9D4-47E3-43FE-9C67-839DBA23732F}"/>
+    <hyperlink ref="E10" r:id="rId6" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Lane" xr:uid="{8E18C0D7-A29E-4249-BC20-19C13A016528}"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_PotencialTransporteSedimentos" xr:uid="{C18A211D-384B-4643-992E-F0B88BB8C73B}"/>
+    <hyperlink ref="E12" r:id="rId8" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Funcionamiento" xr:uid="{77C2131E-CE5E-4C6F-B284-CE06538BED64}"/>
+    <hyperlink ref="E13" r:id="rId9" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Modelo" xr:uid="{E932ABC8-A5FF-4528-8F88-820742CCDB82}"/>
+    <hyperlink ref="E14" r:id="rId10" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_FuncionesTransporte" xr:uid="{55D5DD23-FDB5-4477-B845-7A215F08E897}"/>
+    <hyperlink ref="E15" r:id="rId11" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_InformacionCampo" xr:uid="{2186B670-80FD-4070-B4DF-226BB6BB2A9B}"/>
+    <hyperlink ref="E16" r:id="rId12" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Limitaciones" xr:uid="{9BEB0596-FB57-44ED-935E-09399F1C8C8F}"/>
+    <hyperlink ref="E17" r:id="rId13" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_CasoEstudio" xr:uid="{FE0AA1B4-F2D1-4D8D-A616-BFBD09D92024}"/>
+    <hyperlink ref="E18" r:id="rId14" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Geometria" xr:uid="{41384F99-1753-46AF-84A3-A8A5E727BF7F}"/>
+    <hyperlink ref="E19" r:id="rId15" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Caudal" xr:uid="{8F26E8C0-B127-492D-9428-2F7441770208}"/>
+    <hyperlink ref="E20" r:id="rId16" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Sedimentos" xr:uid="{41E0CFC8-79C7-4221-814A-08722CD465BD}"/>
+    <hyperlink ref="E21" r:id="rId17" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Plan" xr:uid="{382EFA5D-B6BB-4704-B410-06548CBF305A}"/>
+    <hyperlink ref="E22" r:id="rId18" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Resultados" xr:uid="{FD41B25F-9B7F-4D60-A308-989563587F02}"/>
+    <hyperlink ref="E23" r:id="rId19" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Calibracion" xr:uid="{C3C1A7EE-4731-4EF5-867B-84D29CF98DF2}"/>
+    <hyperlink ref="E4" r:id="rId20" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_TransporteDeSedimentos" xr:uid="{5D22F628-8763-475E-84D4-D7DF334BDF4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Videos.xlsx
+++ b/Videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F8B87-5C20-4BFD-91B7-5DBE706E0A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788B378-DE67-45B7-B631-CEBF54C20B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Videos TSED</t>
   </si>
@@ -128,16 +128,28 @@
     <t>Porcentaje completado</t>
   </si>
   <si>
-    <t>*Falta actividad resuelta</t>
-  </si>
-  <si>
-    <t>*Dos videos (teoría + actividad)</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>TSED_1.7_Predicción sobre la respuesta general de un río al cambio (Ejemplo)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Seg</t>
+  </si>
+  <si>
+    <t>Introducción</t>
+  </si>
+  <si>
+    <t>TSED_0_Introducción</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -232,7 +244,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,6 +277,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -561,23 +579,23 @@
     <col min="2" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="52.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.21875" style="2" customWidth="1"/>
     <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
@@ -586,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -594,67 +612,95 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>54</v>
+      </c>
+      <c r="K4" s="13">
+        <f>+I4+J4/60</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="str">
-        <f>+CONCATENATE("TSED_",C4,"_",E4)</f>
+      <c r="F5" s="10" t="str">
+        <f>+CONCATENATE("TSED_",C5,"_",E5)</f>
         <v>TSED_1.1_Transporte de sedimentos</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="J5" s="5">
+        <v>58</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" ref="K5:K25" si="0">+I5+J5/60</f>
+        <v>2.9666666666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
         <v>1.2</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f t="shared" ref="F5:F23" si="0">+CONCATENATE("TSED_",C5,"_",E5)</f>
-        <v>TSED_1.2_Morfología de cauces</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_1.3_Potencia de la corriente</v>
+        <f t="shared" ref="F6:F25" si="1">+CONCATENATE("TSED_",C6,"_",E6)</f>
+        <v>TSED_1.2_Morfología de cauces</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -662,46 +708,63 @@
       <c r="H6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>46</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_1.4_Movimiento incipiente</v>
+        <f t="shared" si="1"/>
+        <v>TSED_1.3_Potencia de la corriente</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_1.5_Acorazamiento</v>
+        <f t="shared" si="1"/>
+        <v>TSED_1.4_Movimiento incipiente</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -709,21 +772,31 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>54</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_1.6_Caudal sólido en suspensión</v>
+        <f t="shared" si="1"/>
+        <v>TSED_1.5_Acorazamiento</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -731,21 +804,31 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>14</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2333333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_1.7_Predicción sobre la respuesta general de un río al cambio</v>
+        <f t="shared" si="1"/>
+        <v>TSED_1.6_Caudal sólido en suspensión</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -753,114 +836,150 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>29</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>1.4833333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>TSED_1.7_Predicción sobre la respuesta general de un río al cambio</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>7</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>TSED_1.8_Cuantificación del potencial de transporte de sedimentos</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="5">
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>46</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C14" s="5">
         <v>2.1</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>TSED_2.1_Funcionamiento del modelo</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="5">
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
+        <v>43</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="0"/>
+        <v>4.7166666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C15" s="5">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_2.2_Estructura del modelo</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_2.3_Funciones de transporte de sedimentos</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.4</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_2.4_Información de campo</v>
+        <f t="shared" si="1"/>
+        <v>TSED_2.2_Estructura del modelo</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -868,21 +987,31 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>37</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6166666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_2.5_Limitaciones</v>
+        <f t="shared" si="1"/>
+        <v>TSED_2.3_Funciones de transporte de sedimentos</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -890,23 +1019,31 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>21</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>28</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_3.1_Presentación caso de estudio</v>
+        <f t="shared" si="1"/>
+        <v>TSED_2.4_Información de campo</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -914,21 +1051,31 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>30</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_3.2_Datos del modelo. Archivo de geometría</v>
+        <f t="shared" si="1"/>
+        <v>TSED_2.5_Limitaciones</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -936,21 +1083,33 @@
       <c r="H18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>23</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_3.3_Datos del modelo. Archivo de caudal</v>
+        <f t="shared" si="1"/>
+        <v>TSED_3.1_Presentación caso de estudio</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -958,21 +1117,31 @@
       <c r="H19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="5">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_3.4_Datos del modelo. Archivo de sedimentos</v>
+        <f t="shared" si="1"/>
+        <v>TSED_3.2_Datos del modelo. Archivo de geometría</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -980,21 +1149,31 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>58</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_3.5_Creación plan de transporte de sedimentos</v>
+        <f t="shared" si="1"/>
+        <v>TSED_3.3_Datos del modelo. Archivo de caudal</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -1002,21 +1181,31 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="5">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5">
+        <v>56</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9333333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>TSED_3.6_Visualización e interpretación de resultados</v>
+        <f t="shared" si="1"/>
+        <v>TSED_3.4_Datos del modelo. Archivo de sedimentos</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -1024,50 +1213,150 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="5">
+        <v>11</v>
+      </c>
+      <c r="J22" s="5">
+        <v>55</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="0"/>
+        <v>11.916666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>TSED_3.5_Creación plan de transporte de sedimentos</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="0"/>
+        <v>5.0166666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>TSED_3.6_Visualización e interpretación de resultados</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5">
+        <v>34</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="5">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>TSED_3.7_Calibración</v>
       </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="8" t="s">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>7</v>
+      </c>
+      <c r="J25" s="5">
+        <v>55</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="0"/>
+        <v>7.916666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9">
-        <f>+SUM(G4:G23)/$B$23</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
-        <f>+SUM(H4:H23)/$B$23</f>
-        <v>0.97499999999999998</v>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9">
+        <f>+SUM(G5:G25)/$B$25</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <f>+SUM(H5:H25)/$B$25</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="12">
+        <f>+SUM(K4:K25)</f>
+        <v>75.233333333333348</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="D5:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D25"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:H23">
+  <conditionalFormatting sqref="G5:H25">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H4">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1077,26 +1366,26 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_ClasificacionRios" xr:uid="{C65BD627-EC04-4D73-8F5D-E401DE5DB9EE}"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia" xr:uid="{6AAC4C38-BB05-4E5A-B3F5-B1ED1C1BE622}"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_MovimientoIncipiente" xr:uid="{B09D3E3A-6551-4F17-BF57-148E9105AA79}"/>
-    <hyperlink ref="E8" r:id="rId4" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Acorazamiento" xr:uid="{6015DD00-321C-4143-AAC3-EDE5F4E4D054}"/>
-    <hyperlink ref="E9" r:id="rId5" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_CaudalSuspension" xr:uid="{6146E9D4-47E3-43FE-9C67-839DBA23732F}"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Lane" xr:uid="{8E18C0D7-A29E-4249-BC20-19C13A016528}"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_PotencialTransporteSedimentos" xr:uid="{C18A211D-384B-4643-992E-F0B88BB8C73B}"/>
-    <hyperlink ref="E12" r:id="rId8" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Funcionamiento" xr:uid="{77C2131E-CE5E-4C6F-B284-CE06538BED64}"/>
-    <hyperlink ref="E13" r:id="rId9" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Modelo" xr:uid="{E932ABC8-A5FF-4528-8F88-820742CCDB82}"/>
-    <hyperlink ref="E14" r:id="rId10" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_FuncionesTransporte" xr:uid="{55D5DD23-FDB5-4477-B845-7A215F08E897}"/>
-    <hyperlink ref="E15" r:id="rId11" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_InformacionCampo" xr:uid="{2186B670-80FD-4070-B4DF-226BB6BB2A9B}"/>
-    <hyperlink ref="E16" r:id="rId12" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Limitaciones" xr:uid="{9BEB0596-FB57-44ED-935E-09399F1C8C8F}"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_CasoEstudio" xr:uid="{FE0AA1B4-F2D1-4D8D-A616-BFBD09D92024}"/>
-    <hyperlink ref="E18" r:id="rId14" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Geometria" xr:uid="{41384F99-1753-46AF-84A3-A8A5E727BF7F}"/>
-    <hyperlink ref="E19" r:id="rId15" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Caudal" xr:uid="{8F26E8C0-B127-492D-9428-2F7441770208}"/>
-    <hyperlink ref="E20" r:id="rId16" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Sedimentos" xr:uid="{41E0CFC8-79C7-4221-814A-08722CD465BD}"/>
-    <hyperlink ref="E21" r:id="rId17" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Plan" xr:uid="{382EFA5D-B6BB-4704-B410-06548CBF305A}"/>
-    <hyperlink ref="E22" r:id="rId18" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Resultados" xr:uid="{FD41B25F-9B7F-4D60-A308-989563587F02}"/>
-    <hyperlink ref="E23" r:id="rId19" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Calibracion" xr:uid="{C3C1A7EE-4731-4EF5-867B-84D29CF98DF2}"/>
-    <hyperlink ref="E4" r:id="rId20" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_TransporteDeSedimentos" xr:uid="{5D22F628-8763-475E-84D4-D7DF334BDF4F}"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_ClasificacionRios" xr:uid="{C65BD627-EC04-4D73-8F5D-E401DE5DB9EE}"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia" xr:uid="{6AAC4C38-BB05-4E5A-B3F5-B1ED1C1BE622}"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_MovimientoIncipiente" xr:uid="{B09D3E3A-6551-4F17-BF57-148E9105AA79}"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Acorazamiento" xr:uid="{6015DD00-321C-4143-AAC3-EDE5F4E4D054}"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_CaudalSuspension" xr:uid="{6146E9D4-47E3-43FE-9C67-839DBA23732F}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Lane" xr:uid="{8E18C0D7-A29E-4249-BC20-19C13A016528}"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_PotencialTransporteSedimentos" xr:uid="{C18A211D-384B-4643-992E-F0B88BB8C73B}"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Funcionamiento" xr:uid="{77C2131E-CE5E-4C6F-B284-CE06538BED64}"/>
+    <hyperlink ref="E15" r:id="rId9" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Modelo" xr:uid="{E932ABC8-A5FF-4528-8F88-820742CCDB82}"/>
+    <hyperlink ref="E16" r:id="rId10" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_FuncionesTransporte" xr:uid="{55D5DD23-FDB5-4477-B845-7A215F08E897}"/>
+    <hyperlink ref="E17" r:id="rId11" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_InformacionCampo" xr:uid="{2186B670-80FD-4070-B4DF-226BB6BB2A9B}"/>
+    <hyperlink ref="E18" r:id="rId12" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Limitaciones" xr:uid="{9BEB0596-FB57-44ED-935E-09399F1C8C8F}"/>
+    <hyperlink ref="E19" r:id="rId13" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_CasoEstudio" xr:uid="{FE0AA1B4-F2D1-4D8D-A616-BFBD09D92024}"/>
+    <hyperlink ref="E20" r:id="rId14" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Geometria" xr:uid="{41384F99-1753-46AF-84A3-A8A5E727BF7F}"/>
+    <hyperlink ref="E21" r:id="rId15" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Caudal" xr:uid="{8F26E8C0-B127-492D-9428-2F7441770208}"/>
+    <hyperlink ref="E22" r:id="rId16" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Sedimentos" xr:uid="{41E0CFC8-79C7-4221-814A-08722CD465BD}"/>
+    <hyperlink ref="E23" r:id="rId17" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Plan" xr:uid="{382EFA5D-B6BB-4704-B410-06548CBF305A}"/>
+    <hyperlink ref="E24" r:id="rId18" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Resultados" xr:uid="{FD41B25F-9B7F-4D60-A308-989563587F02}"/>
+    <hyperlink ref="E25" r:id="rId19" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Calibracion" xr:uid="{C3C1A7EE-4731-4EF5-867B-84D29CF98DF2}"/>
+    <hyperlink ref="E5" r:id="rId20" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_TransporteDeSedimentos" xr:uid="{5D22F628-8763-475E-84D4-D7DF334BDF4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Videos.xlsx
+++ b/Videos.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788B378-DE67-45B7-B631-CEBF54C20B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB55138-B004-4A1A-8472-688D65B7EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t>Videos TSED</t>
   </si>
@@ -150,6 +152,201 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Video de bienvenida al curso</t>
+  </si>
+  <si>
+    <t>TSED_1.1</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 1. Transporte de sedimentos</t>
+  </si>
+  <si>
+    <t>TSED_1.2</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 2. Morfología de cauces</t>
+  </si>
+  <si>
+    <t>TSED_1.3</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 3. Potencia de la corriente</t>
+  </si>
+  <si>
+    <t>TSED_1.4</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 4. Movimiento incipiente</t>
+  </si>
+  <si>
+    <t>TSED_1.5</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 5. Acorazamiento</t>
+  </si>
+  <si>
+    <t>TSED_1.6</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 6. Caudal sólido en suspensión</t>
+  </si>
+  <si>
+    <t>TSED_1.7</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 7. Predicción sobre la respuesta general de un río al cambio</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 7. Predicción sobre la respuesta general de un río al cambio (Ejercicio)</t>
+  </si>
+  <si>
+    <t>TSED_1.8</t>
+  </si>
+  <si>
+    <t>Módulo 1 - Actividad 8. Cuantificación del potencial de transporte de sedimentos</t>
+  </si>
+  <si>
+    <t>TSED_2.1</t>
+  </si>
+  <si>
+    <t>Módulo 2 - Actividad 1. Funcionamiento del modelo</t>
+  </si>
+  <si>
+    <t>TSED_2.2</t>
+  </si>
+  <si>
+    <t>Módulo 2 - Actividad 2. Estructura del modelo</t>
+  </si>
+  <si>
+    <t>TSED_2.3</t>
+  </si>
+  <si>
+    <t>Módulo 2 - Actividad 3. Funciones de transporte de sedimentos</t>
+  </si>
+  <si>
+    <t>TSED_2.4</t>
+  </si>
+  <si>
+    <t>Módulo 2 - Actividad 4. Información de campo</t>
+  </si>
+  <si>
+    <t>TSED_2.5</t>
+  </si>
+  <si>
+    <t>Módulo 2 - Actividad 5. Limitaciones</t>
+  </si>
+  <si>
+    <t>TSED_3.1</t>
+  </si>
+  <si>
+    <t>Módulo 3 - Actividad 1. Presentación caso de estudio</t>
+  </si>
+  <si>
+    <t>TSED_3.2</t>
+  </si>
+  <si>
+    <t>Módulo 3 - Actividad 2. Datos del modelo. Archivo de geometría</t>
+  </si>
+  <si>
+    <t>TSED_3.3</t>
+  </si>
+  <si>
+    <t>Módulo 3 - Actividad 3. Datos del modelo. Archivo de caudal</t>
+  </si>
+  <si>
+    <t>TSED_3.4</t>
+  </si>
+  <si>
+    <t>Módulo 3 - Actividad 4. Datos del modelo. Archivo de sedimentos</t>
+  </si>
+  <si>
+    <t>TSED_3.5</t>
+  </si>
+  <si>
+    <t>Módulo 3 - Actividad 5. Creación plan de transporte de sedimentos</t>
+  </si>
+  <si>
+    <t>TSED_3.6</t>
+  </si>
+  <si>
+    <t>Módulo 3 - Actividad 6. Visualización e interpretación de resultados</t>
+  </si>
+  <si>
+    <t>TSED_3.7</t>
+  </si>
+  <si>
+    <t>Módulo 3 - Actividad 7. Calibración</t>
+  </si>
+  <si>
+    <t>Link Youtube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tHEI6CVskiU&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YsQiZtXLtgc&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t47MjVGfQZE&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kdLz0d-oIk8&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DMWHC01nMoE&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-kC1THq11mw&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=akpWXoANlnE&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=7</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l05N7ss2iKs&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YkOwlSLUjlw&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CYsxpQI7nrY&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XNQcOUXC6K4&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mrzqF9fZoj8&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=12</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wKU3jgt8JJs&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=13</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5BICpqAp2nE&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2OSH5CyjsyE&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=15</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ITpLtVt_5Ko&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=16</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bbXOE0WsQgg&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=17</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PCDUlfb3DZE&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=18</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NVcoCqQfADs&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G7CIUcXtKHQ&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G8Ni05oaRgM&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=21</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DeyxwgvAQYo&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=22</t>
   </si>
 </sst>
 </file>
@@ -244,7 +441,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -276,14 +473,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -566,10 +769,1079 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1EAD33-AA66-4738-B97D-9FAC7B7AECAE}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="65.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>54</v>
+      </c>
+      <c r="L4" s="12">
+        <f>+J4+K4/60</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>58</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L25" si="0">+J5+K5/60</f>
+        <v>2.9666666666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>46</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>54</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>14</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2333333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>29</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4833333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>7</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>46</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="5">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5">
+        <v>43</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="0"/>
+        <v>4.7166666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>37</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="0"/>
+        <v>1.6166666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="5">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>21</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>30</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="5">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>23</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>4</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>58</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>9</v>
+      </c>
+      <c r="K21" s="5">
+        <v>56</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>9.9333333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="5">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>11</v>
+      </c>
+      <c r="K22" s="5">
+        <v>55</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>11.916666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>5.0166666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5">
+        <v>34</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>5.5666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="5">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>7</v>
+      </c>
+      <c r="K25" s="5">
+        <v>55</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>7.916666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9">
+        <f>+SUM(H5:H25)/$B$25</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <f>+SUM(I5:I25)/$B$25</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="11">
+        <f>+SUM(L4:L25)</f>
+        <v>75.233333333333348</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D5:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:I4">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:I25">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_ClasificacionRios" xr:uid="{1668D7FE-76DC-402F-9FEA-53B1EA428A25}"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia" xr:uid="{8003B222-1E0F-49D4-870B-FE83BED63EB7}"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_MovimientoIncipiente" xr:uid="{5C60F31D-8A70-48ED-9218-E1BA4AF86832}"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Acorazamiento" xr:uid="{155029AE-A7C3-46BD-BA45-E1D48DF2DB26}"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_CaudalSuspension" xr:uid="{7711DF8D-8A1B-4EB6-8B6D-3B84412DD736}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Lane" xr:uid="{7E0CFE69-F191-4ADE-A261-0CCAB5E20401}"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_PotencialTransporteSedimentos" xr:uid="{706F8F75-00D5-48DE-8E16-F276C9343698}"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Funcionamiento" xr:uid="{975D65A3-C46E-4515-AFFA-4997770A3FE1}"/>
+    <hyperlink ref="E15" r:id="rId9" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Modelo" xr:uid="{E6BF8288-4613-40FE-A163-CBE16BBAE9D2}"/>
+    <hyperlink ref="E16" r:id="rId10" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_FuncionesTransporte" xr:uid="{324DC70D-3E70-4233-B944-72F63BB77A2E}"/>
+    <hyperlink ref="E17" r:id="rId11" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_InformacionCampo" xr:uid="{7BB000A7-4013-4C0A-B2AC-E54698A69291}"/>
+    <hyperlink ref="E18" r:id="rId12" display="https://github.com/mflatouche/M.TSED/blob/main/Section02/2_Limitaciones" xr:uid="{166486D0-0C8E-4764-8474-880DF0D8DC95}"/>
+    <hyperlink ref="E19" r:id="rId13" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_CasoEstudio" xr:uid="{48416D92-DFD3-4961-A98B-493B0A74314E}"/>
+    <hyperlink ref="E20" r:id="rId14" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Geometria" xr:uid="{90852B6D-C09F-4896-A9F7-24B6C9395F38}"/>
+    <hyperlink ref="E21" r:id="rId15" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Caudal" xr:uid="{6A51D0CE-38CE-49A1-8CF6-AAEAC3330F03}"/>
+    <hyperlink ref="E22" r:id="rId16" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Sedimentos" xr:uid="{6D852EAC-99B2-4FDF-BAB1-DD132CEEE818}"/>
+    <hyperlink ref="E23" r:id="rId17" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Plan" xr:uid="{DF1F41A5-E7B1-4DFD-93F3-98F77DF3DB66}"/>
+    <hyperlink ref="E24" r:id="rId18" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Resultados" xr:uid="{B5A6C983-38C8-4D53-817A-E9C473C12658}"/>
+    <hyperlink ref="E25" r:id="rId19" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Calibracion" xr:uid="{139691E5-A822-4F64-B693-9E97540EEE34}"/>
+    <hyperlink ref="E5" r:id="rId20" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_TransporteDeSedimentos" xr:uid="{24DEA381-5EFF-40F1-8F8E-8020DEAC8E6C}"/>
+    <hyperlink ref="G5" r:id="rId21" xr:uid="{7D535A5D-ECA7-4662-A67D-25AB5E517395}"/>
+    <hyperlink ref="G4" r:id="rId22" xr:uid="{E903F291-0DCD-4293-B8B3-B075674FD6A6}"/>
+    <hyperlink ref="G22" r:id="rId23" xr:uid="{5BF81920-9B08-47DF-9EAE-4DE4223596B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C342DD-E82B-4822-B90C-FC6A37AA43A2}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -648,7 +1920,7 @@
       <c r="J4" s="5">
         <v>54</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f>+I4+J4/60</f>
         <v>2.9</v>
       </c>
@@ -660,7 +1932,7 @@
       <c r="C5" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -682,7 +1954,7 @@
       <c r="J5" s="5">
         <v>58</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f t="shared" ref="K5:K25" si="0">+I5+J5/60</f>
         <v>2.9666666666666668</v>
       </c>
@@ -694,7 +1966,7 @@
       <c r="C6" s="5">
         <v>1.2</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
@@ -714,7 +1986,7 @@
       <c r="J6" s="5">
         <v>46</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>2.7666666666666666</v>
       </c>
@@ -726,7 +1998,7 @@
       <c r="C7" s="5">
         <v>1.3</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
@@ -746,7 +2018,7 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
@@ -758,7 +2030,7 @@
       <c r="C8" s="5">
         <v>1.4</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
@@ -778,7 +2050,7 @@
       <c r="J8" s="5">
         <v>54</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
@@ -790,7 +2062,7 @@
       <c r="C9" s="5">
         <v>1.5</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
@@ -810,7 +2082,7 @@
       <c r="J9" s="5">
         <v>14</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>1.2333333333333334</v>
       </c>
@@ -822,7 +2094,7 @@
       <c r="C10" s="5">
         <v>1.6</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
@@ -842,7 +2114,7 @@
       <c r="J10" s="5">
         <v>29</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>1.4833333333333334</v>
       </c>
@@ -854,7 +2126,7 @@
       <c r="C11" s="5">
         <v>1.7</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
@@ -874,7 +2146,7 @@
       <c r="J11" s="5">
         <v>4</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
@@ -882,7 +2154,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
         <v>32</v>
@@ -895,7 +2167,7 @@
       <c r="J12" s="5">
         <v>7</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>1.1166666666666667</v>
       </c>
@@ -907,7 +2179,7 @@
       <c r="C13" s="5">
         <v>1.8</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
@@ -927,7 +2199,7 @@
       <c r="J13" s="5">
         <v>46</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>2.7666666666666666</v>
       </c>
@@ -939,7 +2211,7 @@
       <c r="C14" s="5">
         <v>2.1</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -961,7 +2233,7 @@
       <c r="J14" s="5">
         <v>43</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>4.7166666666666668</v>
       </c>
@@ -973,7 +2245,7 @@
       <c r="C15" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
@@ -993,7 +2265,7 @@
       <c r="J15" s="5">
         <v>37</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>1.6166666666666667</v>
       </c>
@@ -1005,7 +2277,7 @@
       <c r="C16" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1025,7 +2297,7 @@
       <c r="J16" s="5">
         <v>21</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
@@ -1037,7 +2309,7 @@
       <c r="C17" s="5">
         <v>2.4</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +2329,7 @@
       <c r="J17" s="5">
         <v>30</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -1069,7 +2341,7 @@
       <c r="C18" s="5">
         <v>2.5</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +2361,7 @@
       <c r="J18" s="5">
         <v>23</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>0.38333333333333336</v>
       </c>
@@ -1101,7 +2373,7 @@
       <c r="C19" s="5">
         <v>3.1</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1123,7 +2395,7 @@
       <c r="J19" s="5">
         <v>4</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
@@ -1135,7 +2407,7 @@
       <c r="C20" s="5">
         <v>3.2</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +2427,7 @@
       <c r="J20" s="5">
         <v>58</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <f t="shared" si="0"/>
         <v>1.9666666666666668</v>
       </c>
@@ -1167,7 +2439,7 @@
       <c r="C21" s="5">
         <v>3.3</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +2459,7 @@
       <c r="J21" s="5">
         <v>56</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <f t="shared" si="0"/>
         <v>9.9333333333333336</v>
       </c>
@@ -1199,7 +2471,7 @@
       <c r="C22" s="5">
         <v>3.4</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +2491,7 @@
       <c r="J22" s="5">
         <v>55</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <f t="shared" si="0"/>
         <v>11.916666666666666</v>
       </c>
@@ -1231,7 +2503,7 @@
       <c r="C23" s="5">
         <v>3.5</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
@@ -1251,7 +2523,7 @@
       <c r="J23" s="5">
         <v>1</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <f t="shared" si="0"/>
         <v>5.0166666666666666</v>
       </c>
@@ -1263,7 +2535,7 @@
       <c r="C24" s="5">
         <v>3.6</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +2555,7 @@
       <c r="J24" s="5">
         <v>34</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <f t="shared" si="0"/>
         <v>5.5666666666666664</v>
       </c>
@@ -1295,7 +2567,7 @@
       <c r="C25" s="5">
         <v>3.7</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
@@ -1315,7 +2587,7 @@
       <c r="J25" s="5">
         <v>55</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <f t="shared" si="0"/>
         <v>7.916666666666667</v>
       </c>
@@ -1336,7 +2608,7 @@
       <c r="J26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="11">
         <f>+SUM(K4:K25)</f>
         <v>75.233333333333348</v>
       </c>
@@ -1347,8 +2619,8 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="D19:D25"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:H25">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0" gte="0"/>
@@ -1356,8 +2628,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="G5:H25">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0" gte="0"/>

--- a/Videos.xlsx
+++ b/Videos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB55138-B004-4A1A-8472-688D65B7EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E571C-8E65-4160-8058-1D4C5BB034E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -441,7 +441,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,14 +479,23 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -772,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1EAD33-AA66-4738-B97D-9FAC7B7AECAE}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -807,7 +816,7 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -842,10 +851,10 @@
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>81</v>
       </c>
       <c r="H4" s="5"/>
@@ -870,16 +879,16 @@
       <c r="C5" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="5">
@@ -906,14 +915,14 @@
       <c r="C6" s="5">
         <v>1.2</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="5">
@@ -940,14 +949,14 @@
       <c r="C7" s="5">
         <v>1.3</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="5">
@@ -974,14 +983,14 @@
       <c r="C8" s="5">
         <v>1.4</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="14" t="s">
         <v>85</v>
       </c>
       <c r="H8" s="5">
@@ -1008,11 +1017,11 @@
       <c r="C9" s="5">
         <v>1.5</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1042,14 +1051,14 @@
       <c r="C10" s="5">
         <v>1.6</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H10" s="5">
@@ -1076,14 +1085,14 @@
       <c r="C11" s="5">
         <v>1.7</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="14" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="5">
@@ -1106,12 +1115,12 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="14" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="5"/>
@@ -1134,14 +1143,14 @@
       <c r="C13" s="5">
         <v>1.8</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="14" t="s">
         <v>90</v>
       </c>
       <c r="H13" s="5">
@@ -1168,16 +1177,16 @@
       <c r="C14" s="5">
         <v>2.1</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="14" t="s">
         <v>91</v>
       </c>
       <c r="H14" s="5">
@@ -1204,14 +1213,14 @@
       <c r="C15" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="14" t="s">
         <v>92</v>
       </c>
       <c r="H15" s="5">
@@ -1238,14 +1247,14 @@
       <c r="C16" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="H16" s="5">
@@ -1272,14 +1281,14 @@
       <c r="C17" s="5">
         <v>2.4</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="H17" s="5">
@@ -1306,14 +1315,14 @@
       <c r="C18" s="5">
         <v>2.5</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="H18" s="5">
@@ -1340,16 +1349,16 @@
       <c r="C19" s="5">
         <v>3.1</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="5">
@@ -1376,14 +1385,14 @@
       <c r="C20" s="5">
         <v>3.2</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="5">
@@ -1410,14 +1419,14 @@
       <c r="C21" s="5">
         <v>3.3</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="14" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="5">
@@ -1444,14 +1453,14 @@
       <c r="C22" s="5">
         <v>3.4</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>99</v>
       </c>
       <c r="H22" s="5">
@@ -1478,14 +1487,14 @@
       <c r="C23" s="5">
         <v>3.5</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="5">
@@ -1512,14 +1521,14 @@
       <c r="C24" s="5">
         <v>3.6</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H24" s="5">
@@ -1546,14 +1555,14 @@
       <c r="C25" s="5">
         <v>3.7</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="14" t="s">
         <v>102</v>
       </c>
       <c r="H25" s="5">
@@ -1577,7 +1586,7 @@
       <c r="E26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9">
         <f>+SUM(H5:H25)/$B$25</f>
@@ -1643,6 +1652,24 @@
     <hyperlink ref="G5" r:id="rId21" xr:uid="{7D535A5D-ECA7-4662-A67D-25AB5E517395}"/>
     <hyperlink ref="G4" r:id="rId22" xr:uid="{E903F291-0DCD-4293-B8B3-B075674FD6A6}"/>
     <hyperlink ref="G22" r:id="rId23" xr:uid="{5BF81920-9B08-47DF-9EAE-4DE4223596B0}"/>
+    <hyperlink ref="G10" r:id="rId24" xr:uid="{02608DA3-8D8A-4DE0-8E63-0E11C803FF96}"/>
+    <hyperlink ref="G6" r:id="rId25" xr:uid="{B1457372-748B-41D5-AD13-6F728F857DBF}"/>
+    <hyperlink ref="G11" r:id="rId26" xr:uid="{2BFD55DB-DF04-4601-BE3D-F14326E6C297}"/>
+    <hyperlink ref="G12" r:id="rId27" xr:uid="{AD404FA9-B188-4183-8EF8-04A2E0AD3DEB}"/>
+    <hyperlink ref="G8" r:id="rId28" xr:uid="{97226D35-3725-47E0-BE9C-DE4592A13E3B}"/>
+    <hyperlink ref="G7" r:id="rId29" xr:uid="{B5CA6820-D5B7-4C60-B46C-CE24FBCEF46B}"/>
+    <hyperlink ref="G13" r:id="rId30" xr:uid="{A9257F6F-10C8-447A-903A-2EE65BAC644A}"/>
+    <hyperlink ref="G14" r:id="rId31" xr:uid="{389FE459-5DB4-4B41-BFA5-F4544CBAE095}"/>
+    <hyperlink ref="G16" r:id="rId32" xr:uid="{62EB0022-34B9-4D1E-A6DA-BE5EA55D8A74}"/>
+    <hyperlink ref="G17" r:id="rId33" xr:uid="{C072C5BD-24E8-4832-A97F-38C151697D52}"/>
+    <hyperlink ref="G18" r:id="rId34" xr:uid="{D0A59E8B-9557-447B-990A-649116342125}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{19DA3534-44F3-4C60-BB54-5A6DC59DC966}"/>
+    <hyperlink ref="G15" r:id="rId36" xr:uid="{46D24693-EDA0-434F-BDB1-8533F8E6ECDA}"/>
+    <hyperlink ref="G25" r:id="rId37" xr:uid="{1FE69F63-0742-4866-B94A-EAC5C77EEE5B}"/>
+    <hyperlink ref="G21" r:id="rId38" xr:uid="{2FF226FE-1DF7-4A23-B580-E4EF7F948DF2}"/>
+    <hyperlink ref="G20" r:id="rId39" xr:uid="{91157EFF-190E-4057-8A06-3140162AEE10}"/>
+    <hyperlink ref="G23" r:id="rId40" xr:uid="{56ACE8A6-B135-437A-A5A7-563D27AC0C9F}"/>
+    <hyperlink ref="G24" r:id="rId41" xr:uid="{A0F9090E-DF9E-466A-B228-1D97CD1781B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1659,176 +1686,176 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1932,7 +1959,7 @@
       <c r="C5" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1966,7 +1993,7 @@
       <c r="C6" s="5">
         <v>1.2</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2025,7 @@
       <c r="C7" s="5">
         <v>1.3</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2030,7 +2057,7 @@
       <c r="C8" s="5">
         <v>1.4</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2089,7 @@
       <c r="C9" s="5">
         <v>1.5</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2094,7 +2121,7 @@
       <c r="C10" s="5">
         <v>1.6</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2153,7 @@
       <c r="C11" s="5">
         <v>1.7</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
@@ -2154,7 +2181,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
         <v>32</v>
@@ -2179,7 +2206,7 @@
       <c r="C13" s="5">
         <v>1.8</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
@@ -2211,7 +2238,7 @@
       <c r="C14" s="5">
         <v>2.1</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -2245,7 +2272,7 @@
       <c r="C15" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2277,7 +2304,7 @@
       <c r="C16" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
@@ -2309,7 +2336,7 @@
       <c r="C17" s="5">
         <v>2.4</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
@@ -2341,7 +2368,7 @@
       <c r="C18" s="5">
         <v>2.5</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
@@ -2373,7 +2400,7 @@
       <c r="C19" s="5">
         <v>3.1</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -2407,7 +2434,7 @@
       <c r="C20" s="5">
         <v>3.2</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
@@ -2439,7 +2466,7 @@
       <c r="C21" s="5">
         <v>3.3</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
@@ -2471,7 +2498,7 @@
       <c r="C22" s="5">
         <v>3.4</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
@@ -2503,7 +2530,7 @@
       <c r="C23" s="5">
         <v>3.5</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +2562,7 @@
       <c r="C24" s="5">
         <v>3.6</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
@@ -2567,7 +2594,7 @@
       <c r="C25" s="5">
         <v>3.7</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>

--- a/Videos.xlsx
+++ b/Videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E571C-8E65-4160-8058-1D4C5BB034E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37454F3-706C-4693-9A7F-36A68B055095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -441,7 +441,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,14 +488,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -781,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1EAD33-AA66-4738-B97D-9FAC7B7AECAE}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -816,7 +810,7 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -851,7 +845,7 @@
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -885,7 +879,7 @@
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -919,7 +913,7 @@
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -953,7 +947,7 @@
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -987,7 +981,7 @@
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -1021,7 +1015,7 @@
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1055,7 +1049,7 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1089,7 +1083,7 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -1117,7 +1111,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="15"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1147,7 +1141,7 @@
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -1183,7 +1177,7 @@
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -1217,7 +1211,7 @@
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="14" t="s">
@@ -1251,7 +1245,7 @@
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>61</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -1285,7 +1279,7 @@
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="14" t="s">
@@ -1319,7 +1313,7 @@
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -1355,7 +1349,7 @@
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="14" t="s">
@@ -1389,7 +1383,7 @@
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -1423,7 +1417,7 @@
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="14" t="s">
@@ -1457,7 +1451,7 @@
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -1491,7 +1485,7 @@
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -1525,7 +1519,7 @@
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>77</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -1559,7 +1553,7 @@
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>79</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -1586,7 +1580,7 @@
       <c r="E26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9">
         <f>+SUM(H5:H25)/$B$25</f>

--- a/Videos.xlsx
+++ b/Videos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37454F3-706C-4693-9A7F-36A68B055095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEADC2F-BFB7-41AB-8C78-569CBD5B289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
   <si>
     <t>Videos TSED</t>
   </si>
@@ -347,6 +347,78 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DeyxwgvAQYo&amp;list=PLneiG4vC_8Ytff-IPFsp_zPcsFO4js_1U&amp;index=22</t>
+  </si>
+  <si>
+    <t>Módulo 0 - Video de bienvenida al curso</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A5ym3mSIkUI&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BNAOI6lppA0&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PQy25twJ6TE&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5XQcKyUX4-g&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=31mGqMXujDc&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TxQTehE6jm0&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kkFgWufbXL4&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=7</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=88RgSFbgva4&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OBF1_sB2lOI&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=9</t>
+  </si>
+  <si>
+    <t>Link Youtube_v2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0YTQspS-mmQ&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hY0tVuNNbVI&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qFcG1n-tTMQ&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=12</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gAKhlKHFWMI&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=13</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SxxOT_oo9jk&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q467Q20GrFA&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=15</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YLV4ulMCeWo&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=16</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-FAbd-4OSqE&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=17</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q-GIH696MAo&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=18</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=me3rLfz5Tnk&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9H5jtWDZAbI&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FO2IgGDL5u8&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=21</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZpEvOW2nAYU&amp;list=PLneiG4vC_8Yv09qJOZTMGO8mixQ973hb2&amp;index=22</t>
   </si>
 </sst>
 </file>
@@ -441,7 +513,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,8 +560,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -773,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1EAD33-AA66-4738-B97D-9FAC7B7AECAE}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -786,18 +861,19 @@
     <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="52.5546875" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="65.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="8" width="55.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -817,22 +893,25 @@
         <v>80</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -845,28 +924,31 @@
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>38</v>
+      <c r="F4" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
+      <c r="H4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>54</v>
       </c>
-      <c r="L4" s="12">
-        <f>+J4+K4/60</f>
+      <c r="M4" s="12">
+        <f>+K4+L4/60</f>
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -879,30 +961,33 @@
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
+      <c r="H5" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
       <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
         <v>2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>58</v>
       </c>
-      <c r="L5" s="12">
-        <f t="shared" ref="L5:L25" si="0">+J5+K5/60</f>
+      <c r="M5" s="12">
+        <f t="shared" ref="M5:M25" si="0">+K5+L5/60</f>
         <v>2.9666666666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -913,30 +998,33 @@
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
+      <c r="H6" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
       </c>
       <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>46</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <f t="shared" si="0"/>
         <v>2.7666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -947,14 +1035,14 @@
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
+      <c r="H7" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -963,14 +1051,17 @@
         <v>1</v>
       </c>
       <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -981,30 +1072,33 @@
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
+      <c r="H8" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>54</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1015,14 +1109,14 @@
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="5">
-        <v>1</v>
+      <c r="H9" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -1031,14 +1125,17 @@
         <v>1</v>
       </c>
       <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
         <v>14</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <f t="shared" si="0"/>
         <v>1.2333333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1049,14 +1146,14 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
+      <c r="H10" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
@@ -1065,14 +1162,17 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
         <v>29</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <f t="shared" si="0"/>
         <v>1.4833333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1083,54 +1183,60 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
+      <c r="H11" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>4</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="15"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
         <v>7</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <f t="shared" si="0"/>
         <v>1.1166666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -1141,30 +1247,33 @@
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
+      <c r="H13" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
       </c>
       <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
         <v>2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>46</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="12">
         <f t="shared" si="0"/>
         <v>2.7666666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -1177,30 +1286,33 @@
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
+      <c r="H14" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="I14" s="5">
         <v>1</v>
       </c>
       <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
         <v>4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>43</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12">
         <f t="shared" si="0"/>
         <v>4.7166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -1211,14 +1323,14 @@
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="5">
-        <v>1</v>
+      <c r="H15" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
@@ -1227,14 +1339,17 @@
         <v>1</v>
       </c>
       <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
         <v>37</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="12">
         <f t="shared" si="0"/>
         <v>1.6166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>11</v>
       </c>
@@ -1245,14 +1360,14 @@
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="5">
-        <v>1</v>
+      <c r="H16" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="I16" s="5">
         <v>1</v>
@@ -1261,14 +1376,17 @@
         <v>1</v>
       </c>
       <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
         <v>21</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -1279,14 +1397,14 @@
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="5">
-        <v>1</v>
+      <c r="H17" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -1295,14 +1413,17 @@
         <v>1</v>
       </c>
       <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
         <v>30</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -1313,30 +1434,33 @@
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="5">
-        <v>1</v>
+      <c r="H18" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
       </c>
       <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>23</v>
       </c>
-      <c r="L18" s="12">
+      <c r="M18" s="12">
         <f t="shared" si="0"/>
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -1349,30 +1473,33 @@
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="5">
-        <v>1</v>
+      <c r="H19" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
       </c>
       <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
         <v>2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>4</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -1383,14 +1510,14 @@
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
+      <c r="H20" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -1399,14 +1526,17 @@
         <v>1</v>
       </c>
       <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
         <v>58</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M20" s="12">
         <f t="shared" si="0"/>
         <v>1.9666666666666668</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -1417,30 +1547,33 @@
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="10" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="5">
-        <v>1</v>
+      <c r="H21" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
       </c>
       <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
         <v>9</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>56</v>
       </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12">
         <f t="shared" si="0"/>
         <v>9.9333333333333336</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -1451,30 +1584,33 @@
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="5">
-        <v>1</v>
+      <c r="H22" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
       </c>
       <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
         <v>11</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>55</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M22" s="12">
         <f t="shared" si="0"/>
         <v>11.916666666666666</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -1485,30 +1621,33 @@
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="5">
-        <v>1</v>
+      <c r="H23" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
       </c>
       <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
         <v>5</v>
       </c>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="12">
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12">
         <f t="shared" si="0"/>
         <v>5.0166666666666666</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -1519,30 +1658,33 @@
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="10" t="s">
         <v>77</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="5">
-        <v>1</v>
+      <c r="H24" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
       </c>
       <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
         <v>5</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>34</v>
       </c>
-      <c r="L24" s="12">
+      <c r="M24" s="12">
         <f t="shared" si="0"/>
         <v>5.5666666666666664</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -1553,48 +1695,52 @@
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="10" t="s">
         <v>79</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="5">
-        <v>1</v>
+      <c r="H25" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
       </c>
       <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
         <v>7</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>55</v>
       </c>
-      <c r="L25" s="12">
+      <c r="M25" s="12">
         <f t="shared" si="0"/>
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E26" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="9">
-        <f>+SUM(H5:H25)/$B$25</f>
-        <v>1</v>
-      </c>
+      <c r="H26" s="17"/>
       <c r="I26" s="9">
         <f>+SUM(I5:I25)/$B$25</f>
         <v>1</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="9">
+        <f>+SUM(J5:J25)/$B$25</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="11">
-        <f>+SUM(L4:L25)</f>
+      <c r="M26" s="11">
+        <f>+SUM(M4:M25)</f>
         <v>75.233333333333348</v>
       </c>
     </row>
@@ -1604,7 +1750,7 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="D19:D25"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:I4">
+  <conditionalFormatting sqref="I4:J4">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1613,7 +1759,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I25">
+  <conditionalFormatting sqref="I5:J25">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1643,27 +1789,49 @@
     <hyperlink ref="E24" r:id="rId18" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Resultados" xr:uid="{B5A6C983-38C8-4D53-817A-E9C473C12658}"/>
     <hyperlink ref="E25" r:id="rId19" display="https://github.com/mflatouche/M.TSED/blob/main/Section03/3_Calibracion" xr:uid="{139691E5-A822-4F64-B693-9E97540EEE34}"/>
     <hyperlink ref="E5" r:id="rId20" display="https://github.com/mflatouche/M.TSED/blob/main/Section01/1_TransporteDeSedimentos" xr:uid="{24DEA381-5EFF-40F1-8F8E-8020DEAC8E6C}"/>
-    <hyperlink ref="G5" r:id="rId21" xr:uid="{7D535A5D-ECA7-4662-A67D-25AB5E517395}"/>
-    <hyperlink ref="G4" r:id="rId22" xr:uid="{E903F291-0DCD-4293-B8B3-B075674FD6A6}"/>
-    <hyperlink ref="G22" r:id="rId23" xr:uid="{5BF81920-9B08-47DF-9EAE-4DE4223596B0}"/>
-    <hyperlink ref="G10" r:id="rId24" xr:uid="{02608DA3-8D8A-4DE0-8E63-0E11C803FF96}"/>
-    <hyperlink ref="G6" r:id="rId25" xr:uid="{B1457372-748B-41D5-AD13-6F728F857DBF}"/>
-    <hyperlink ref="G11" r:id="rId26" xr:uid="{2BFD55DB-DF04-4601-BE3D-F14326E6C297}"/>
-    <hyperlink ref="G12" r:id="rId27" xr:uid="{AD404FA9-B188-4183-8EF8-04A2E0AD3DEB}"/>
-    <hyperlink ref="G8" r:id="rId28" xr:uid="{97226D35-3725-47E0-BE9C-DE4592A13E3B}"/>
-    <hyperlink ref="G7" r:id="rId29" xr:uid="{B5CA6820-D5B7-4C60-B46C-CE24FBCEF46B}"/>
-    <hyperlink ref="G13" r:id="rId30" xr:uid="{A9257F6F-10C8-447A-903A-2EE65BAC644A}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{A0F9090E-DF9E-466A-B228-1D97CD1781B8}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{56ACE8A6-B135-437A-A5A7-563D27AC0C9F}"/>
+    <hyperlink ref="G20" r:id="rId23" xr:uid="{91157EFF-190E-4057-8A06-3140162AEE10}"/>
+    <hyperlink ref="G21" r:id="rId24" xr:uid="{2FF226FE-1DF7-4A23-B580-E4EF7F948DF2}"/>
+    <hyperlink ref="G25" r:id="rId25" xr:uid="{1FE69F63-0742-4866-B94A-EAC5C77EEE5B}"/>
+    <hyperlink ref="G15" r:id="rId26" xr:uid="{46D24693-EDA0-434F-BDB1-8533F8E6ECDA}"/>
+    <hyperlink ref="G19" r:id="rId27" xr:uid="{19DA3534-44F3-4C60-BB54-5A6DC59DC966}"/>
+    <hyperlink ref="G18" r:id="rId28" xr:uid="{D0A59E8B-9557-447B-990A-649116342125}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{C072C5BD-24E8-4832-A97F-38C151697D52}"/>
+    <hyperlink ref="G16" r:id="rId30" xr:uid="{62EB0022-34B9-4D1E-A6DA-BE5EA55D8A74}"/>
     <hyperlink ref="G14" r:id="rId31" xr:uid="{389FE459-5DB4-4B41-BFA5-F4544CBAE095}"/>
-    <hyperlink ref="G16" r:id="rId32" xr:uid="{62EB0022-34B9-4D1E-A6DA-BE5EA55D8A74}"/>
-    <hyperlink ref="G17" r:id="rId33" xr:uid="{C072C5BD-24E8-4832-A97F-38C151697D52}"/>
-    <hyperlink ref="G18" r:id="rId34" xr:uid="{D0A59E8B-9557-447B-990A-649116342125}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{19DA3534-44F3-4C60-BB54-5A6DC59DC966}"/>
-    <hyperlink ref="G15" r:id="rId36" xr:uid="{46D24693-EDA0-434F-BDB1-8533F8E6ECDA}"/>
-    <hyperlink ref="G25" r:id="rId37" xr:uid="{1FE69F63-0742-4866-B94A-EAC5C77EEE5B}"/>
-    <hyperlink ref="G21" r:id="rId38" xr:uid="{2FF226FE-1DF7-4A23-B580-E4EF7F948DF2}"/>
-    <hyperlink ref="G20" r:id="rId39" xr:uid="{91157EFF-190E-4057-8A06-3140162AEE10}"/>
-    <hyperlink ref="G23" r:id="rId40" xr:uid="{56ACE8A6-B135-437A-A5A7-563D27AC0C9F}"/>
-    <hyperlink ref="G24" r:id="rId41" xr:uid="{A0F9090E-DF9E-466A-B228-1D97CD1781B8}"/>
+    <hyperlink ref="G13" r:id="rId32" xr:uid="{A9257F6F-10C8-447A-903A-2EE65BAC644A}"/>
+    <hyperlink ref="G7" r:id="rId33" xr:uid="{B5CA6820-D5B7-4C60-B46C-CE24FBCEF46B}"/>
+    <hyperlink ref="G8" r:id="rId34" xr:uid="{97226D35-3725-47E0-BE9C-DE4592A13E3B}"/>
+    <hyperlink ref="G12" r:id="rId35" xr:uid="{AD404FA9-B188-4183-8EF8-04A2E0AD3DEB}"/>
+    <hyperlink ref="G11" r:id="rId36" xr:uid="{2BFD55DB-DF04-4601-BE3D-F14326E6C297}"/>
+    <hyperlink ref="G6" r:id="rId37" xr:uid="{B1457372-748B-41D5-AD13-6F728F857DBF}"/>
+    <hyperlink ref="G10" r:id="rId38" xr:uid="{02608DA3-8D8A-4DE0-8E63-0E11C803FF96}"/>
+    <hyperlink ref="G22" r:id="rId39" xr:uid="{5BF81920-9B08-47DF-9EAE-4DE4223596B0}"/>
+    <hyperlink ref="G4" r:id="rId40" xr:uid="{E903F291-0DCD-4293-B8B3-B075674FD6A6}"/>
+    <hyperlink ref="G5" r:id="rId41" xr:uid="{7D535A5D-ECA7-4662-A67D-25AB5E517395}"/>
+    <hyperlink ref="H4" r:id="rId42" xr:uid="{ACE1446F-7A34-4AE9-A11B-77C04164CA3C}"/>
+    <hyperlink ref="H5" r:id="rId43" xr:uid="{B9D7F171-8FB7-445A-B5C7-276A2618AEA1}"/>
+    <hyperlink ref="H6" r:id="rId44" xr:uid="{FA75D68A-2168-49CB-8DCB-691B12B690A4}"/>
+    <hyperlink ref="H7" r:id="rId45" xr:uid="{53A850A3-D7E6-49DD-8CDD-3041196F9E6D}"/>
+    <hyperlink ref="H8" r:id="rId46" xr:uid="{A0CFAC73-4333-4A8D-8BC9-89E6D6F42DAF}"/>
+    <hyperlink ref="G9" r:id="rId47" xr:uid="{92611140-8966-4022-9061-43AD4A409FA2}"/>
+    <hyperlink ref="H9" r:id="rId48" xr:uid="{DBEC6E81-3E34-4E5A-97FA-856A8D0712BA}"/>
+    <hyperlink ref="H10" r:id="rId49" xr:uid="{6805BB07-FC0B-4B88-AED1-A0AA426DBA8D}"/>
+    <hyperlink ref="H11" r:id="rId50" xr:uid="{B42832D8-59C2-4F0D-A96F-53EA2D80FA12}"/>
+    <hyperlink ref="H12" r:id="rId51" xr:uid="{D6208176-A097-44D5-B192-D341FD8F23F4}"/>
+    <hyperlink ref="H13" r:id="rId52" xr:uid="{AEDEAC95-0656-4631-9D47-F96A89B14094}"/>
+    <hyperlink ref="H14" r:id="rId53" xr:uid="{02A0488F-6E76-48B4-9A6D-F8F310972384}"/>
+    <hyperlink ref="H15" r:id="rId54" xr:uid="{0B03C03E-F30C-4F0C-813B-2BC1B8BAAE5F}"/>
+    <hyperlink ref="H16" r:id="rId55" xr:uid="{BED969CD-E982-481E-A6F7-B9A704A11250}"/>
+    <hyperlink ref="H17" r:id="rId56" xr:uid="{CDCFA502-07D1-4B64-A109-EAAAD398B37D}"/>
+    <hyperlink ref="H18" r:id="rId57" xr:uid="{54E95FE9-DD60-4501-985F-82991D9CD786}"/>
+    <hyperlink ref="H19" r:id="rId58" xr:uid="{4425AB44-1128-4F1B-85CF-419083A7D5D7}"/>
+    <hyperlink ref="H20" r:id="rId59" xr:uid="{B9C57B08-F7A0-4A80-9552-22798B91CF5A}"/>
+    <hyperlink ref="H21" r:id="rId60" xr:uid="{F09BBF87-C416-4F60-874A-0FFEC9D2BBB5}"/>
+    <hyperlink ref="H22" r:id="rId61" xr:uid="{F534C0CB-78CD-4083-8C7D-5416E5B25A4D}"/>
+    <hyperlink ref="H23" r:id="rId62" xr:uid="{DAF563E6-5F69-4CE7-ADA0-C878DB154FAB}"/>
+    <hyperlink ref="H24" r:id="rId63" xr:uid="{84CDEDD0-BDDF-4E0C-A3CD-54F2D7710AD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
